--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\My Drive\Monthly-Bulletin-Outlook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\My Drive\Dashboard_Deployed\GUI_test_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CB5A50-5DFE-4440-A04E-55532400236B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6773EA74-6D78-4C8A-B701-09E604AF07B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{8E035F72-D6B3-4207-8637-DB24C6D06A30}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{8E035F72-D6B3-4207-8637-DB24C6D06A30}"/>
   </bookViews>
   <sheets>
     <sheet name="2001-only" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -113,12 +113,15 @@
   <si>
     <t>Recurrent Expenditure</t>
   </si>
+  <si>
+    <t>Credit to Core Private Sectors</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +146,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0A3069"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -164,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -176,6 +185,7 @@
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,10 +503,10 @@
   <dimension ref="A1:M260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B256" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O16" sqref="O16"/>
+      <selection pane="bottomRight" activeCell="K260" sqref="K260:M260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23909,10 +23919,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B7C967-F799-47E9-8E6B-28B0445D2871}">
-  <dimension ref="A1:Q136"/>
+  <dimension ref="A1:Q135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23942,14 +23952,14 @@
       <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
+      <c r="H1" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>8</v>
@@ -31615,63 +31625,6 @@
       </c>
       <c r="Q135" s="4">
         <v>159</v>
-      </c>
-    </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A136" s="2">
-        <v>44743</v>
-      </c>
-      <c r="B136" s="4">
-        <v>120.54</v>
-      </c>
-      <c r="C136" s="4">
-        <v>2.76</v>
-      </c>
-      <c r="D136" s="4">
-        <v>14</v>
-      </c>
-      <c r="E136" s="4">
-        <v>0</v>
-      </c>
-      <c r="F136" s="4">
-        <v>0</v>
-      </c>
-      <c r="G136" s="4">
-        <v>0</v>
-      </c>
-      <c r="H136" s="4">
-        <v>0</v>
-      </c>
-      <c r="I136" s="4">
-        <v>695</v>
-      </c>
-      <c r="J136" s="4">
-        <f>(raw_data!N272-raw_data!N260)/raw_data!N260*100</f>
-        <v>19.635622306521132</v>
-      </c>
-      <c r="K136" s="4">
-        <f>(raw_data!O272-raw_data!O260)/raw_data!O260*100</f>
-        <v>22.016815521491313</v>
-      </c>
-      <c r="L136" s="4">
-        <f>(raw_data!P272-raw_data!P260)/raw_data!P260*100</f>
-        <v>15.284974093264253</v>
-      </c>
-      <c r="M136" s="4">
-        <f>(raw_data!Q272-raw_data!Q260)/raw_data!Q260*100</f>
-        <v>17.564567021152275</v>
-      </c>
-      <c r="N136" s="4">
-        <v>0</v>
-      </c>
-      <c r="O136" s="6">
-        <v>39869505.79124742</v>
-      </c>
-      <c r="P136" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q136" s="4">
-        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -31684,11 +31637,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6B9978F-A542-4E53-96DD-AB687A995103}">
   <dimension ref="A1:U272"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B186" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U4" sqref="U4"/>
+      <selection pane="bottomRight" activeCell="H193" sqref="H193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31718,8 +31671,8 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
+      <c r="H1" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>9</v>
@@ -48638,5 +48591,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\My Drive\Dashboard_Deployed\GUI_test_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6773EA74-6D78-4C8A-B701-09E604AF07B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514980E1-5D0E-4B20-A4F0-205C79C62701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{8E035F72-D6B3-4207-8637-DB24C6D06A30}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{8E035F72-D6B3-4207-8637-DB24C6D06A30}"/>
   </bookViews>
   <sheets>
     <sheet name="2001-only" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -116,12 +116,15 @@
   <si>
     <t>Credit to Core Private Sectors</t>
   </si>
+  <si>
+    <t>Bureau De Change</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +155,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -173,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -186,6 +195,7 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,10 +513,10 @@
   <dimension ref="A1:M260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B256" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B243" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K260" sqref="K260:M260"/>
+      <selection pane="bottomRight" activeCell="H259" sqref="H259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12222,7 +12232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F39A23B-C6C5-4BDE-A8B5-41DEB2B21623}">
   <dimension ref="A1:M260"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A252" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -23919,10 +23929,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B7C967-F799-47E9-8E6B-28B0445D2871}">
-  <dimension ref="A1:Q135"/>
+  <dimension ref="A1:Q136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="G140" sqref="G140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23961,8 +23971,8 @@
       <c r="H1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
+      <c r="I1" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>20</v>
@@ -31625,6 +31635,63 @@
       </c>
       <c r="Q135" s="4">
         <v>159</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A136" s="10">
+        <v>44743</v>
+      </c>
+      <c r="B136" s="4">
+        <v>120.54</v>
+      </c>
+      <c r="C136" s="4">
+        <v>2.76</v>
+      </c>
+      <c r="D136" s="4">
+        <v>14</v>
+      </c>
+      <c r="E136" s="4">
+        <v>0</v>
+      </c>
+      <c r="F136" s="4">
+        <v>0</v>
+      </c>
+      <c r="G136" s="4">
+        <v>0</v>
+      </c>
+      <c r="H136" s="4">
+        <v>0</v>
+      </c>
+      <c r="I136" s="4">
+        <v>695</v>
+      </c>
+      <c r="J136" s="4">
+        <f>(raw_data!N272-raw_data!N260)/raw_data!N260*100</f>
+        <v>19.635622306521132</v>
+      </c>
+      <c r="K136" s="4">
+        <f>(raw_data!O272-raw_data!O260)/raw_data!O260*100</f>
+        <v>22.016815521491313</v>
+      </c>
+      <c r="L136" s="4">
+        <f>(raw_data!P272-raw_data!P260)/raw_data!P260*100</f>
+        <v>15.284974093264253</v>
+      </c>
+      <c r="M136" s="4">
+        <f>(raw_data!Q272-raw_data!Q260)/raw_data!Q260*100</f>
+        <v>17.564567021152275</v>
+      </c>
+      <c r="N136" s="4">
+        <v>0</v>
+      </c>
+      <c r="O136" s="6">
+        <v>39869505.79124742</v>
+      </c>
+      <c r="P136" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q136" s="4">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -31637,11 +31704,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6B9978F-A542-4E53-96DD-AB687A995103}">
   <dimension ref="A1:U272"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B186" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B264" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H193" sqref="H193"/>
+      <selection pane="bottomRight" activeCell="L270" sqref="L270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31687,7 +31754,7 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>14</v>
